--- a/movement.xlsx
+++ b/movement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Desktop\24-1\종설\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF840EF-0C60-4114-AD59-0D141E530D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CCC2B1-A615-4E63-BD65-335648C8C2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{119698F5-A744-440C-A279-638743176699}"/>
+    <workbookView xWindow="3720" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{119698F5-A744-440C-A279-638743176699}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>stat_user_cop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -177,10 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F82E55-4CCB-457D-A7AC-8CB2237BA95F}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,7 +549,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
@@ -595,8 +598,6 @@
       <c r="E4" s="3">
         <v>60</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -614,8 +615,6 @@
       <c r="E5" s="3">
         <v>60</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -633,20 +632,8 @@
       <c r="E6" s="2">
         <v>60</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/movement.xlsx
+++ b/movement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Documents\GitHub\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CCC2B1-A615-4E63-BD65-335648C8C2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54902308-B765-4C24-8575-FA58B5C2AB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{119698F5-A744-440C-A279-638743176699}"/>
+    <workbookView xWindow="1050" yWindow="540" windowWidth="25620" windowHeight="11385" xr2:uid="{119698F5-A744-440C-A279-638743176699}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +525,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -570,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>

--- a/movement.xlsx
+++ b/movement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54902308-B765-4C24-8575-FA58B5C2AB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8453CCD4-24EA-4888-A8A8-599C0F11E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="540" windowWidth="25620" windowHeight="11385" xr2:uid="{119698F5-A744-440C-A279-638743176699}"/>
   </bookViews>
@@ -58,22 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 이동속도(m/s)*10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달릴 때의 속도(m/s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시점 회전 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카메라 시점(각도)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +83,22 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>camera angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view rotating speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running speed (m/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walking speed(m/s)*10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +525,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,41 +554,41 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>15000</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>15000</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>10000</v>
